--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Col11a1</t>
+  </si>
+  <si>
+    <t>Ddr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Col11a1</t>
-  </si>
-  <si>
-    <t>Ddr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.111757</v>
+        <v>0.111796</v>
       </c>
       <c r="H2">
-        <v>0.223514</v>
+        <v>0.223592</v>
       </c>
       <c r="I2">
-        <v>0.05848310859811817</v>
+        <v>0.05991298372779096</v>
       </c>
       <c r="J2">
-        <v>0.04414705044082069</v>
+        <v>0.0456715562445117</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N2">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O2">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P2">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q2">
-        <v>0.005911274758</v>
+        <v>0.07400045550399999</v>
       </c>
       <c r="R2">
-        <v>0.023645099032</v>
+        <v>0.2960018220159999</v>
       </c>
       <c r="S2">
-        <v>0.000188499088772733</v>
+        <v>0.003556750948626244</v>
       </c>
       <c r="T2">
-        <v>0.0001264712442552104</v>
+        <v>0.002349853873675825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.111757</v>
+        <v>0.111796</v>
       </c>
       <c r="H3">
-        <v>0.223514</v>
+        <v>0.223592</v>
       </c>
       <c r="I3">
-        <v>0.05848310859811817</v>
+        <v>0.05991298372779096</v>
       </c>
       <c r="J3">
-        <v>0.04414705044082069</v>
+        <v>0.0456715562445117</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.447531</v>
       </c>
       <c r="O3">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P3">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q3">
-        <v>0.3146902406556666</v>
+        <v>0.3148000585586666</v>
       </c>
       <c r="R3">
-        <v>1.888141443934</v>
+        <v>1.888800351352</v>
       </c>
       <c r="S3">
-        <v>0.01003486152102579</v>
+        <v>0.0151305204715343</v>
       </c>
       <c r="T3">
-        <v>0.01009915828311776</v>
+        <v>0.01499451858774316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.111757</v>
+        <v>0.111796</v>
       </c>
       <c r="H4">
-        <v>0.223514</v>
+        <v>0.223592</v>
       </c>
       <c r="I4">
-        <v>0.05848310859811817</v>
+        <v>0.05991298372779096</v>
       </c>
       <c r="J4">
-        <v>0.04414705044082069</v>
+        <v>0.0456715562445117</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N4">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O4">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P4">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q4">
-        <v>0.025293850053</v>
+        <v>0.02234194615066666</v>
       </c>
       <c r="R4">
-        <v>0.151763100318</v>
+        <v>0.134051676904</v>
       </c>
       <c r="S4">
-        <v>0.0008065718278603225</v>
+        <v>0.001073841203061848</v>
       </c>
       <c r="T4">
-        <v>0.0008117398071909151</v>
+        <v>0.001064188896204083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.111757</v>
+        <v>0.111796</v>
       </c>
       <c r="H5">
-        <v>0.223514</v>
+        <v>0.223592</v>
       </c>
       <c r="I5">
-        <v>0.05848310859811817</v>
+        <v>0.05991298372779096</v>
       </c>
       <c r="J5">
-        <v>0.04414705044082069</v>
+        <v>0.0456715562445117</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N5">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O5">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P5">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q5">
-        <v>1.3692544193545</v>
+        <v>0.7890493484439999</v>
       </c>
       <c r="R5">
-        <v>5.477017677418</v>
+        <v>3.156197393776</v>
       </c>
       <c r="S5">
-        <v>0.04366286814820407</v>
+        <v>0.03792479383372738</v>
       </c>
       <c r="T5">
-        <v>0.02929508730470505</v>
+        <v>0.0250559358768041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.111757</v>
+        <v>0.111796</v>
       </c>
       <c r="H6">
-        <v>0.223514</v>
+        <v>0.223592</v>
       </c>
       <c r="I6">
-        <v>0.05848310859811817</v>
+        <v>0.05991298372779096</v>
       </c>
       <c r="J6">
-        <v>0.04414705044082069</v>
+        <v>0.0456715562445117</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N6">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O6">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P6">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q6">
-        <v>0.05609493605666667</v>
+        <v>0.01484844659733333</v>
       </c>
       <c r="R6">
-        <v>0.33656961634</v>
+        <v>0.08909067958399999</v>
       </c>
       <c r="S6">
-        <v>0.001788758730447494</v>
+        <v>0.0007136743437726105</v>
       </c>
       <c r="T6">
-        <v>0.001800219914469868</v>
+        <v>0.0007072594253070442</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.111757</v>
+        <v>0.111796</v>
       </c>
       <c r="H7">
-        <v>0.223514</v>
+        <v>0.223592</v>
       </c>
       <c r="I7">
-        <v>0.05848310859811817</v>
+        <v>0.05991298372779096</v>
       </c>
       <c r="J7">
-        <v>0.04414705044082069</v>
+        <v>0.0456715562445117</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N7">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O7">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P7">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q7">
-        <v>0.06276798377899999</v>
+        <v>0.03148730613466666</v>
       </c>
       <c r="R7">
-        <v>0.376607902674</v>
+        <v>0.188923836808</v>
       </c>
       <c r="S7">
-        <v>0.002001549281807751</v>
+        <v>0.001513402927068564</v>
       </c>
       <c r="T7">
-        <v>0.002014373887081885</v>
+        <v>0.001499799584777493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>3.491116</v>
       </c>
       <c r="I8">
-        <v>0.6089739827083999</v>
+        <v>0.6236453781883391</v>
       </c>
       <c r="J8">
-        <v>0.6895428212405316</v>
+        <v>0.7131055706381031</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N8">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O8">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P8">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q8">
-        <v>0.06155302990133333</v>
+        <v>0.7702844890613333</v>
       </c>
       <c r="R8">
-        <v>0.369318179408</v>
+        <v>4.621706934368</v>
       </c>
       <c r="S8">
-        <v>0.001962806758711337</v>
+        <v>0.03702288139338396</v>
       </c>
       <c r="T8">
-        <v>0.001975383127496591</v>
+        <v>0.03669009828639509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>3.491116</v>
       </c>
       <c r="I9">
-        <v>0.6089739827083999</v>
+        <v>0.6236453781883391</v>
       </c>
       <c r="J9">
-        <v>0.6895428212405316</v>
+        <v>0.7131055706381031</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.447531</v>
       </c>
       <c r="O9">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P9">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q9">
         <v>3.276812292732889</v>
@@ -1013,10 +1013,10 @@
         <v>29.491310634596</v>
       </c>
       <c r="S9">
-        <v>0.1044911895566198</v>
+        <v>0.1574963985190315</v>
       </c>
       <c r="T9">
-        <v>0.1577410500851175</v>
+        <v>0.2341210944665622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>3.491116</v>
       </c>
       <c r="I10">
-        <v>0.6089739827083999</v>
+        <v>0.6236453781883391</v>
       </c>
       <c r="J10">
-        <v>0.6895428212405316</v>
+        <v>0.7131055706381031</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N10">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O10">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P10">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q10">
-        <v>0.263380264388</v>
+        <v>0.2325614681435556</v>
       </c>
       <c r="R10">
-        <v>2.370422379492</v>
+        <v>2.093053213292</v>
       </c>
       <c r="S10">
-        <v>0.008398685879161687</v>
+        <v>0.01117781257966435</v>
       </c>
       <c r="T10">
-        <v>0.01267874866326547</v>
+        <v>0.01661600988658098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>3.491116</v>
       </c>
       <c r="I11">
-        <v>0.6089739827083999</v>
+        <v>0.6236453781883391</v>
       </c>
       <c r="J11">
-        <v>0.6895428212405316</v>
+        <v>0.7131055706381031</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N11">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O11">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P11">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q11">
-        <v>14.25779745781533</v>
+        <v>8.213361256641333</v>
       </c>
       <c r="R11">
-        <v>85.546784746892</v>
+        <v>49.28016753984799</v>
       </c>
       <c r="S11">
-        <v>0.4546535119294113</v>
+        <v>0.3947662246401989</v>
       </c>
       <c r="T11">
-        <v>0.4575666312215462</v>
+        <v>0.3912178371072527</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>3.491116</v>
       </c>
       <c r="I12">
-        <v>0.6089739827083999</v>
+        <v>0.6236453781883391</v>
       </c>
       <c r="J12">
-        <v>0.6895428212405316</v>
+        <v>0.7131055706381031</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N12">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O12">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P12">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q12">
-        <v>0.5841063759955556</v>
+        <v>0.1545602391591111</v>
       </c>
       <c r="R12">
-        <v>5.256957383960001</v>
+        <v>1.391042152432</v>
       </c>
       <c r="S12">
-        <v>0.01862601961996395</v>
+        <v>0.007428768829934467</v>
       </c>
       <c r="T12">
-        <v>0.02811804426981928</v>
+        <v>0.01104299212780523</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>3.491116</v>
       </c>
       <c r="I13">
-        <v>0.6089739827083999</v>
+        <v>0.6236453781883391</v>
       </c>
       <c r="J13">
-        <v>0.6895428212405316</v>
+        <v>0.7131055706381031</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N13">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O13">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P13">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q13">
-        <v>0.6535916093506665</v>
+        <v>0.3277572192315555</v>
       </c>
       <c r="R13">
-        <v>5.882324484155999</v>
+        <v>2.949814973084</v>
       </c>
       <c r="S13">
-        <v>0.02084176896453183</v>
+        <v>0.01575329222612585</v>
       </c>
       <c r="T13">
-        <v>0.03146296387328651</v>
+        <v>0.02341753876350702</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5580835</v>
+        <v>0.5904715</v>
       </c>
       <c r="H14">
-        <v>1.116167</v>
+        <v>1.180943</v>
       </c>
       <c r="I14">
-        <v>0.2920484438318663</v>
+        <v>0.3164416380838699</v>
       </c>
       <c r="J14">
-        <v>0.2204581406506058</v>
+        <v>0.2412228731173852</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N14">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O14">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P14">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q14">
-        <v>0.029519268649</v>
+        <v>0.390847257166</v>
       </c>
       <c r="R14">
-        <v>0.118077074596</v>
+        <v>1.563389028664</v>
       </c>
       <c r="S14">
-        <v>0.000941312232872192</v>
+        <v>0.01878564588859854</v>
       </c>
       <c r="T14">
-        <v>0.0006315623597922519</v>
+        <v>0.01241119307998654</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5580835</v>
+        <v>0.5904715</v>
       </c>
       <c r="H15">
-        <v>1.116167</v>
+        <v>1.180943</v>
       </c>
       <c r="I15">
-        <v>0.2920484438318663</v>
+        <v>0.3164416380838699</v>
       </c>
       <c r="J15">
-        <v>0.2204581406506058</v>
+        <v>0.2412228731173852</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.447531</v>
       </c>
       <c r="O15">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P15">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q15">
-        <v>1.571475888946166</v>
+        <v>1.662675433622167</v>
       </c>
       <c r="R15">
-        <v>9.428855333676999</v>
+        <v>9.976052601733</v>
       </c>
       <c r="S15">
-        <v>0.05011131866164442</v>
+        <v>0.0799146760045759</v>
       </c>
       <c r="T15">
-        <v>0.05043239888057437</v>
+        <v>0.07919635659847034</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5580835</v>
+        <v>0.5904715</v>
       </c>
       <c r="H16">
-        <v>1.116167</v>
+        <v>1.180943</v>
       </c>
       <c r="I16">
-        <v>0.2920484438318663</v>
+        <v>0.3164416380838699</v>
       </c>
       <c r="J16">
-        <v>0.2204581406506058</v>
+        <v>0.2412228731173852</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N16">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O16">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P16">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q16">
-        <v>0.1263104804715</v>
+        <v>0.1180031705651667</v>
       </c>
       <c r="R16">
-        <v>0.7578628828289999</v>
+        <v>0.708019023391</v>
       </c>
       <c r="S16">
-        <v>0.004027796278476393</v>
+        <v>0.005671693315804987</v>
       </c>
       <c r="T16">
-        <v>0.004053603735662474</v>
+        <v>0.005620712850414768</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5580835</v>
+        <v>0.5904715</v>
       </c>
       <c r="H17">
-        <v>1.116167</v>
+        <v>1.180943</v>
       </c>
       <c r="I17">
-        <v>0.2920484438318663</v>
+        <v>0.3164416380838699</v>
       </c>
       <c r="J17">
-        <v>0.2204581406506058</v>
+        <v>0.2412228731173852</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N17">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O17">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P17">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q17">
-        <v>6.837677270719749</v>
+        <v>4.1675118282385</v>
       </c>
       <c r="R17">
-        <v>27.350709082879</v>
+        <v>16.670047312954</v>
       </c>
       <c r="S17">
-        <v>0.2180402684054533</v>
+        <v>0.2003068974041268</v>
       </c>
       <c r="T17">
-        <v>0.1462915509168586</v>
+        <v>0.1323376153089586</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
         <v>2</v>
       </c>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5580835</v>
+        <v>0.5904715</v>
       </c>
       <c r="H18">
-        <v>1.116167</v>
+        <v>1.180943</v>
       </c>
       <c r="I18">
-        <v>0.2920484438318663</v>
+        <v>0.3164416380838699</v>
       </c>
       <c r="J18">
-        <v>0.2204581406506058</v>
+        <v>0.2412228731173852</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N18">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O18">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P18">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q18">
-        <v>0.2801225717116667</v>
+        <v>0.07842485003933333</v>
       </c>
       <c r="R18">
-        <v>1.68073543027</v>
+        <v>0.470549100236</v>
       </c>
       <c r="S18">
-        <v>0.008932565592702862</v>
+        <v>0.003769404632356516</v>
       </c>
       <c r="T18">
-        <v>0.008989799570828176</v>
+        <v>0.00373552303973477</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5580835</v>
+        <v>0.5904715</v>
       </c>
       <c r="H19">
-        <v>1.116167</v>
+        <v>1.180943</v>
       </c>
       <c r="I19">
-        <v>0.2920484438318663</v>
+        <v>0.3164416380838699</v>
       </c>
       <c r="J19">
-        <v>0.2204581406506058</v>
+        <v>0.2412228731173852</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N19">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O19">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P19">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q19">
-        <v>0.3134459235244999</v>
+        <v>0.1663061011511666</v>
       </c>
       <c r="R19">
-        <v>1.880675541147</v>
+        <v>0.997836606907</v>
       </c>
       <c r="S19">
-        <v>0.009995182660717056</v>
+        <v>0.007993320838407151</v>
       </c>
       <c r="T19">
-        <v>0.01005922518688998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.07625999999999999</v>
-      </c>
-      <c r="H20">
-        <v>0.22878</v>
-      </c>
-      <c r="I20">
-        <v>0.03990731553005621</v>
-      </c>
-      <c r="J20">
-        <v>0.04518715695594441</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.052894</v>
-      </c>
-      <c r="N20">
-        <v>0.105788</v>
-      </c>
-      <c r="O20">
-        <v>0.003223137300516178</v>
-      </c>
-      <c r="P20">
-        <v>0.002864772232626178</v>
-      </c>
-      <c r="Q20">
-        <v>0.00403369644</v>
-      </c>
-      <c r="R20">
-        <v>0.02420217864</v>
-      </c>
-      <c r="S20">
-        <v>0.0001286267572483927</v>
-      </c>
-      <c r="T20">
-        <v>0.0001294509125187104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.07625999999999999</v>
-      </c>
-      <c r="H21">
-        <v>0.22878</v>
-      </c>
-      <c r="I21">
-        <v>0.03990731553005621</v>
-      </c>
-      <c r="J21">
-        <v>0.04518715695594441</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.815843666666666</v>
-      </c>
-      <c r="N21">
-        <v>8.447531</v>
-      </c>
-      <c r="O21">
-        <v>0.1715856383418833</v>
-      </c>
-      <c r="P21">
-        <v>0.2287617900239049</v>
-      </c>
-      <c r="Q21">
-        <v>0.21473623802</v>
-      </c>
-      <c r="R21">
-        <v>1.93262614218</v>
-      </c>
-      <c r="S21">
-        <v>0.006847522209735646</v>
-      </c>
-      <c r="T21">
-        <v>0.01033709491133299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.07625999999999999</v>
-      </c>
-      <c r="H22">
-        <v>0.22878</v>
-      </c>
-      <c r="I22">
-        <v>0.03990731553005621</v>
-      </c>
-      <c r="J22">
-        <v>0.04518715695594441</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.226329</v>
-      </c>
-      <c r="N22">
-        <v>0.678987</v>
-      </c>
-      <c r="O22">
-        <v>0.01379153480713362</v>
-      </c>
-      <c r="P22">
-        <v>0.01838718100270494</v>
-      </c>
-      <c r="Q22">
-        <v>0.01725984954</v>
-      </c>
-      <c r="R22">
-        <v>0.15533864586</v>
-      </c>
-      <c r="S22">
-        <v>0.0005503831311920344</v>
-      </c>
-      <c r="T22">
-        <v>0.0008308644339465875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.07625999999999999</v>
-      </c>
-      <c r="H23">
-        <v>0.22878</v>
-      </c>
-      <c r="I23">
-        <v>0.03990731553005621</v>
-      </c>
-      <c r="J23">
-        <v>0.04518715695594441</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>12.2520685</v>
-      </c>
-      <c r="N23">
-        <v>24.504137</v>
-      </c>
-      <c r="O23">
-        <v>0.7465893861464306</v>
-      </c>
-      <c r="P23">
-        <v>0.6635797185131369</v>
-      </c>
-      <c r="Q23">
-        <v>0.9343427438099999</v>
-      </c>
-      <c r="R23">
-        <v>5.60605646286</v>
-      </c>
-      <c r="S23">
-        <v>0.02979437820433658</v>
-      </c>
-      <c r="T23">
-        <v>0.02998528089323452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.07625999999999999</v>
-      </c>
-      <c r="H24">
-        <v>0.22878</v>
-      </c>
-      <c r="I24">
-        <v>0.03990731553005621</v>
-      </c>
-      <c r="J24">
-        <v>0.04518715695594441</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.5019366666666667</v>
-      </c>
-      <c r="N24">
-        <v>1.50581</v>
-      </c>
-      <c r="O24">
-        <v>0.03058590374768572</v>
-      </c>
-      <c r="P24">
-        <v>0.0407778072712484</v>
-      </c>
-      <c r="Q24">
-        <v>0.0382776902</v>
-      </c>
-      <c r="R24">
-        <v>0.3444992118</v>
-      </c>
-      <c r="S24">
-        <v>0.001220601311630823</v>
-      </c>
-      <c r="T24">
-        <v>0.001842633177485152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.07625999999999999</v>
-      </c>
-      <c r="H25">
-        <v>0.22878</v>
-      </c>
-      <c r="I25">
-        <v>0.03990731553005621</v>
-      </c>
-      <c r="J25">
-        <v>0.04518715695594441</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.5616469999999999</v>
-      </c>
-      <c r="N25">
-        <v>1.684941</v>
-      </c>
-      <c r="O25">
-        <v>0.03422439965635062</v>
-      </c>
-      <c r="P25">
-        <v>0.04562873095637865</v>
-      </c>
-      <c r="Q25">
-        <v>0.04283120021999999</v>
-      </c>
-      <c r="R25">
-        <v>0.3854808019799999</v>
-      </c>
-      <c r="S25">
-        <v>0.001365803915912731</v>
-      </c>
-      <c r="T25">
-        <v>0.002061832627426442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.001122</v>
-      </c>
-      <c r="H26">
-        <v>0.003366</v>
-      </c>
-      <c r="I26">
-        <v>0.0005871493315594423</v>
-      </c>
-      <c r="J26">
-        <v>0.0006648307120976872</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.052894</v>
-      </c>
-      <c r="N26">
-        <v>0.105788</v>
-      </c>
-      <c r="O26">
-        <v>0.003223137300516178</v>
-      </c>
-      <c r="P26">
-        <v>0.002864772232626178</v>
-      </c>
-      <c r="Q26">
-        <v>5.934706799999999E-05</v>
-      </c>
-      <c r="R26">
-        <v>0.0003560824079999999</v>
-      </c>
-      <c r="S26">
-        <v>1.892462911522379E-06</v>
-      </c>
-      <c r="T26">
-        <v>1.904588563414543E-06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.001122</v>
-      </c>
-      <c r="H27">
-        <v>0.003366</v>
-      </c>
-      <c r="I27">
-        <v>0.0005871493315594423</v>
-      </c>
-      <c r="J27">
-        <v>0.0006648307120976872</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2.815843666666666</v>
-      </c>
-      <c r="N27">
-        <v>8.447531</v>
-      </c>
-      <c r="O27">
-        <v>0.1715856383418833</v>
-      </c>
-      <c r="P27">
-        <v>0.2287617900239049</v>
-      </c>
-      <c r="Q27">
-        <v>0.003159376594</v>
-      </c>
-      <c r="R27">
-        <v>0.028434389346</v>
-      </c>
-      <c r="S27">
-        <v>0.000100746392857637</v>
-      </c>
-      <c r="T27">
-        <v>0.0001520878637623343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.001122</v>
-      </c>
-      <c r="H28">
-        <v>0.003366</v>
-      </c>
-      <c r="I28">
-        <v>0.0005871493315594423</v>
-      </c>
-      <c r="J28">
-        <v>0.0006648307120976872</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.226329</v>
-      </c>
-      <c r="N28">
-        <v>0.678987</v>
-      </c>
-      <c r="O28">
-        <v>0.01379153480713362</v>
-      </c>
-      <c r="P28">
-        <v>0.01838718100270494</v>
-      </c>
-      <c r="Q28">
-        <v>0.000253941138</v>
-      </c>
-      <c r="R28">
-        <v>0.002285470242</v>
-      </c>
-      <c r="S28">
-        <v>8.097690443187289E-06</v>
-      </c>
-      <c r="T28">
-        <v>1.222436263949739E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.001122</v>
-      </c>
-      <c r="H29">
-        <v>0.003366</v>
-      </c>
-      <c r="I29">
-        <v>0.0005871493315594423</v>
-      </c>
-      <c r="J29">
-        <v>0.0006648307120976872</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>12.2520685</v>
-      </c>
-      <c r="N29">
-        <v>24.504137</v>
-      </c>
-      <c r="O29">
-        <v>0.7465893861464306</v>
-      </c>
-      <c r="P29">
-        <v>0.6635797185131369</v>
-      </c>
-      <c r="Q29">
-        <v>0.013746820857</v>
-      </c>
-      <c r="R29">
-        <v>0.08248092514199999</v>
-      </c>
-      <c r="S29">
-        <v>0.000438359459025251</v>
-      </c>
-      <c r="T29">
-        <v>0.0004411681767926716</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.001122</v>
-      </c>
-      <c r="H30">
-        <v>0.003366</v>
-      </c>
-      <c r="I30">
-        <v>0.0005871493315594423</v>
-      </c>
-      <c r="J30">
-        <v>0.0006648307120976872</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.5019366666666667</v>
-      </c>
-      <c r="N30">
-        <v>1.50581</v>
-      </c>
-      <c r="O30">
-        <v>0.03058590374768572</v>
-      </c>
-      <c r="P30">
-        <v>0.0407778072712484</v>
-      </c>
-      <c r="Q30">
-        <v>0.0005631729400000001</v>
-      </c>
-      <c r="R30">
-        <v>0.00506855646</v>
-      </c>
-      <c r="S30">
-        <v>1.795849294059511E-05</v>
-      </c>
-      <c r="T30">
-        <v>2.711033864592632E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.001122</v>
-      </c>
-      <c r="H31">
-        <v>0.003366</v>
-      </c>
-      <c r="I31">
-        <v>0.0005871493315594423</v>
-      </c>
-      <c r="J31">
-        <v>0.0006648307120976872</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.5616469999999999</v>
-      </c>
-      <c r="N31">
-        <v>1.684941</v>
-      </c>
-      <c r="O31">
-        <v>0.03422439965635062</v>
-      </c>
-      <c r="P31">
-        <v>0.04562873095637865</v>
-      </c>
-      <c r="Q31">
-        <v>0.0006301679339999999</v>
-      </c>
-      <c r="R31">
-        <v>0.005671511405999999</v>
-      </c>
-      <c r="S31">
-        <v>2.009483338124947E-05</v>
-      </c>
-      <c r="T31">
-        <v>3.0335381693843E-05</v>
+        <v>0.007921472239820239</v>
       </c>
     </row>
   </sheetData>
